--- a/diagrams.xlsx
+++ b/diagrams.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\22-Trngs\2-Confirmed\1-AWS\GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC1C4C6-235D-4469-8CA3-E403088F65FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE51AC80-771E-4641-82B7-38F6176D3DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{EAF671F3-C4E6-49E1-9851-2F69B47F1396}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{EAF671F3-C4E6-49E1-9851-2F69B47F1396}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Public</t>
   </si>
@@ -159,13 +162,79 @@
   </si>
   <si>
     <t>aws s3 ls</t>
+  </si>
+  <si>
+    <t>WS1</t>
+  </si>
+  <si>
+    <t>WS2</t>
+  </si>
+  <si>
+    <t>Showing Wether report</t>
+  </si>
+  <si>
+    <t>Showing temperature of city</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>ws1.mysite.com</t>
+  </si>
+  <si>
+    <t>ws2.yoursite.com</t>
+  </si>
+  <si>
+    <t>ws1.mysite.com: Allow</t>
+  </si>
+  <si>
+    <t>AWSTemplateFormatVersion: 2010-09-09</t>
+  </si>
+  <si>
+    <t>Description: A simple EC2 instance</t>
+  </si>
+  <si>
+    <t>Resources:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MyEC2Instance:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Type: 'AWS::EC2::Instance'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Properties:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ImageId: ami-0ff8a91507f77f867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      InstanceType: t2.micro</t>
+  </si>
+  <si>
+    <t>www.attlogics.in</t>
+  </si>
+  <si>
+    <t>EC2 Instance</t>
+  </si>
+  <si>
+    <t>Public IP: 34.12.3.5</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>attlogics.in</t>
+  </si>
+  <si>
+    <t>nameServers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +259,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +337,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,10 +363,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -300,10 +384,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1616,6 +1704,242 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526052</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>67218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>286839</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22AD2B71-EA62-8A52-3AD2-6BBD0BC8DF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402852" y="2941047"/>
+          <a:ext cx="979987" cy="807176"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312013</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D99C33C-A07A-32D0-9847-1D26D4DB4B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3360013" y="1718310"/>
+          <a:ext cx="2050187" cy="1454876"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511629</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C752ED2E-30C8-37A9-6AAB-8FE28186650B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3559629" y="1104900"/>
+          <a:ext cx="4343400" cy="54429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216477</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>125557</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3CC0C9-6654-5C1D-EC87-401778289768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="826943" y="1091045"/>
+          <a:ext cx="519546" cy="588819"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2301,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CE21DC-0847-476C-8E9A-5A920EC118BF}">
   <dimension ref="A3:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2311,7 +2635,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="6"/>
@@ -2363,38 +2687,38 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
@@ -2402,7 +2726,7 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="11" t="s">
         <v>43</v>
       </c>
@@ -2441,4 +2765,252 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58AAC2-6019-4B6D-A273-7D324B28531E}">
+  <dimension ref="D3:P14"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="N6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AB3AEE-8C89-4B1E-819A-C69EF331D490}">
+  <dimension ref="C3:C10"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C343509-9D63-4BCB-8E00-DB68ED45FAB7}">
+  <dimension ref="D5:P10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="O5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="O6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{DBFA0EE6-F5E2-4E8A-A902-CB25F3ACA06B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>